--- a/po_analysis_by_asin/B0C8K3DFD9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8K3DFD9_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,247 +452,247 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1020</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>690</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>570</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1230</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1050</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>320</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>540</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>720</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>640</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45411</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>660</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45439</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>460</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45453</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45460</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>660</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45474</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45481</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45488</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1400</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45509</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45516</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>200</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45523</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>160</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45530</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45537</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45544</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>680</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45551</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>680</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45558</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45565</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45572</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>120</v>
@@ -700,33 +700,193 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45579</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45586</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>420</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45593</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>880</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45600</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B36" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B56" t="n">
         <v>220</v>
       </c>
     </row>
@@ -741,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,89 +923,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3510</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1960</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1700</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1420</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>780</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2180</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>580</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1620</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2140</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>220</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C8K3DFD9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8K3DFD9_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,367 +460,367 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>310</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>430</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>70</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>300</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>530</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>110</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1020</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>690</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>570</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>1230</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1050</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>320</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>540</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>120</v>
+        <v>720</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>720</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>640</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>120</v>
+        <v>660</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>660</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>520</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>260</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>1400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>680</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>680</v>
@@ -828,65 +828,57 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>680</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>420</v>
+        <v>880</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45606.99999999999</v>
-      </c>
-      <c r="B56" t="n">
         <v>220</v>
       </c>
     </row>
@@ -934,7 +926,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>370</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
@@ -998,7 +990,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1960</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="12">

--- a/po_analysis_by_asin/B0C8K3DFD9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8K3DFD9_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -909,7 +910,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1056,915 @@
       </c>
       <c r="B19" t="n">
         <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>196</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-186.0013559319844</v>
+      </c>
+      <c r="D2" t="n">
+        <v>574.2078832188538</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>204</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-170.4978354967769</v>
+      </c>
+      <c r="D3" t="n">
+        <v>599.9972781404667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>208</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-184.0566157223312</v>
+      </c>
+      <c r="D4" t="n">
+        <v>568.9691952935688</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-164.5409301090037</v>
+      </c>
+      <c r="D5" t="n">
+        <v>583.936454022613</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>216</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-153.6355140842168</v>
+      </c>
+      <c r="D6" t="n">
+        <v>615.4590511837638</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>220</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-169.7714105906308</v>
+      </c>
+      <c r="D7" t="n">
+        <v>568.6069556569673</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>224</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-155.7723663285341</v>
+      </c>
+      <c r="D8" t="n">
+        <v>599.1748808569552</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>228</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-172.8912716378057</v>
+      </c>
+      <c r="D9" t="n">
+        <v>593.4649812887144</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>232</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-142.5353036368565</v>
+      </c>
+      <c r="D10" t="n">
+        <v>605.1995790434878</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>240</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-125.5860119029165</v>
+      </c>
+      <c r="D11" t="n">
+        <v>617.868722916431</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>248</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-147.5162881057961</v>
+      </c>
+      <c r="D12" t="n">
+        <v>632.7947061545947</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>252</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-94.22249102331139</v>
+      </c>
+      <c r="D13" t="n">
+        <v>621.6032081806718</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>256</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-139.4793272351805</v>
+      </c>
+      <c r="D14" t="n">
+        <v>612.4914586471564</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>260</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-125.3878366306767</v>
+      </c>
+      <c r="D15" t="n">
+        <v>614.9035230455814</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>264</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-105.6018327867915</v>
+      </c>
+      <c r="D16" t="n">
+        <v>652.6907740579907</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>268</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-111.176548646644</v>
+      </c>
+      <c r="D17" t="n">
+        <v>649.2083165413499</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>276</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-116.3979590440645</v>
+      </c>
+      <c r="D18" t="n">
+        <v>667.320942871357</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>288</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-85.28919250001464</v>
+      </c>
+      <c r="D19" t="n">
+        <v>685.7033923633468</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>292</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-105.9734245987551</v>
+      </c>
+      <c r="D20" t="n">
+        <v>692.1794370088252</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>304</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-116.5186998614502</v>
+      </c>
+      <c r="D21" t="n">
+        <v>683.4316823941841</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>312</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-85.35940028126001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>703.9147139028453</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>315</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-70.0960227586788</v>
+      </c>
+      <c r="D23" t="n">
+        <v>707.7649864062298</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>319</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-78.85545815467613</v>
+      </c>
+      <c r="D24" t="n">
+        <v>713.088223619447</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>323</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-36.92891131985129</v>
+      </c>
+      <c r="D25" t="n">
+        <v>714.0525931627247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>339</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-37.9217104923006</v>
+      </c>
+      <c r="D26" t="n">
+        <v>708.6103981176683</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>343</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-31.38016033792603</v>
+      </c>
+      <c r="D27" t="n">
+        <v>734.7352686350648</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>347</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-40.00576685310224</v>
+      </c>
+      <c r="D28" t="n">
+        <v>740.2404464630118</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>351</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-46.71687590961781</v>
+      </c>
+      <c r="D29" t="n">
+        <v>738.8874938435979</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>355</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-39.16242351810941</v>
+      </c>
+      <c r="D30" t="n">
+        <v>726.9389538886741</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>359</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-18.32564871264739</v>
+      </c>
+      <c r="D31" t="n">
+        <v>724.0184025121316</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>363</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-31.86391435806414</v>
+      </c>
+      <c r="D32" t="n">
+        <v>738.6782588909107</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>367</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.09124553795246226</v>
+      </c>
+      <c r="D33" t="n">
+        <v>731.143076922967</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>371</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-28.84720782001609</v>
+      </c>
+      <c r="D34" t="n">
+        <v>771.1804445291507</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>375</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-5.49403826057214</v>
+      </c>
+      <c r="D35" t="n">
+        <v>754.6112622255147</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>387</v>
+      </c>
+      <c r="C36" t="n">
+        <v>32.25107819049487</v>
+      </c>
+      <c r="D36" t="n">
+        <v>768.6221884288755</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>395</v>
+      </c>
+      <c r="C37" t="n">
+        <v>48.89611598872257</v>
+      </c>
+      <c r="D37" t="n">
+        <v>801.4677855866761</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>399</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.073037638450382</v>
+      </c>
+      <c r="D38" t="n">
+        <v>790.949317036587</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>407</v>
+      </c>
+      <c r="C39" t="n">
+        <v>38.15187404392002</v>
+      </c>
+      <c r="D39" t="n">
+        <v>804.6866679643476</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>411</v>
+      </c>
+      <c r="C40" t="n">
+        <v>22.93256258216521</v>
+      </c>
+      <c r="D40" t="n">
+        <v>806.1300567982763</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>415</v>
+      </c>
+      <c r="C41" t="n">
+        <v>37.48749649364868</v>
+      </c>
+      <c r="D41" t="n">
+        <v>776.1307228049058</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>427</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40.6184373300955</v>
+      </c>
+      <c r="D42" t="n">
+        <v>803.7015422076668</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>431</v>
+      </c>
+      <c r="C43" t="n">
+        <v>42.68913449229629</v>
+      </c>
+      <c r="D43" t="n">
+        <v>812.7464829365794</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>435</v>
+      </c>
+      <c r="C44" t="n">
+        <v>55.54339804833004</v>
+      </c>
+      <c r="D44" t="n">
+        <v>817.2404529329349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>439</v>
+      </c>
+      <c r="C45" t="n">
+        <v>79.92011105241501</v>
+      </c>
+      <c r="D45" t="n">
+        <v>820.7584587159118</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>443</v>
+      </c>
+      <c r="C46" t="n">
+        <v>57.89663022771793</v>
+      </c>
+      <c r="D46" t="n">
+        <v>830.4898912976021</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>447</v>
+      </c>
+      <c r="C47" t="n">
+        <v>69.969079159393</v>
+      </c>
+      <c r="D47" t="n">
+        <v>815.4567202826631</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>450</v>
+      </c>
+      <c r="C48" t="n">
+        <v>76.66409742293644</v>
+      </c>
+      <c r="D48" t="n">
+        <v>827.0079394645004</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>454</v>
+      </c>
+      <c r="C49" t="n">
+        <v>43.29020627542954</v>
+      </c>
+      <c r="D49" t="n">
+        <v>845.8415969052666</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>458</v>
+      </c>
+      <c r="C50" t="n">
+        <v>86.92421770703683</v>
+      </c>
+      <c r="D50" t="n">
+        <v>862.9099696888851</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>462</v>
+      </c>
+      <c r="C51" t="n">
+        <v>80.14259831502331</v>
+      </c>
+      <c r="D51" t="n">
+        <v>849.4278958426021</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>466</v>
+      </c>
+      <c r="C52" t="n">
+        <v>64.75797884522051</v>
+      </c>
+      <c r="D52" t="n">
+        <v>852.7509347447467</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>470</v>
+      </c>
+      <c r="C53" t="n">
+        <v>110.9289843412895</v>
+      </c>
+      <c r="D53" t="n">
+        <v>835.3318784331857</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>474</v>
+      </c>
+      <c r="C54" t="n">
+        <v>113.7680201583209</v>
+      </c>
+      <c r="D54" t="n">
+        <v>861.3936366155743</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>478</v>
+      </c>
+      <c r="C55" t="n">
+        <v>125.4926155878319</v>
+      </c>
+      <c r="D55" t="n">
+        <v>854.1247713658346</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>482</v>
+      </c>
+      <c r="C56" t="n">
+        <v>85.45324806563687</v>
+      </c>
+      <c r="D56" t="n">
+        <v>867.3581040153522</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>486</v>
+      </c>
+      <c r="C57" t="n">
+        <v>113.3587749202466</v>
+      </c>
+      <c r="D57" t="n">
+        <v>868.4447059647695</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>490</v>
+      </c>
+      <c r="C58" t="n">
+        <v>120.9793025970482</v>
+      </c>
+      <c r="D58" t="n">
+        <v>894.8568045413052</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>494</v>
+      </c>
+      <c r="C59" t="n">
+        <v>108.8113659797732</v>
+      </c>
+      <c r="D59" t="n">
+        <v>883.1560108028277</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>498</v>
+      </c>
+      <c r="C60" t="n">
+        <v>94.59185193225686</v>
+      </c>
+      <c r="D60" t="n">
+        <v>873.1815338772627</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>502</v>
+      </c>
+      <c r="C61" t="n">
+        <v>97.05347944722989</v>
+      </c>
+      <c r="D61" t="n">
+        <v>893.9818732003471</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>506</v>
+      </c>
+      <c r="C62" t="n">
+        <v>141.5919290226283</v>
+      </c>
+      <c r="D62" t="n">
+        <v>884.5768859147379</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>510</v>
+      </c>
+      <c r="C63" t="n">
+        <v>126.9548611688752</v>
+      </c>
+      <c r="D63" t="n">
+        <v>873.3135734306376</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C8K3DFD9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8K3DFD9_po_data.xlsx
@@ -1069,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,16 +1088,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1106,12 +1096,6 @@
       <c r="B2" t="n">
         <v>196</v>
       </c>
-      <c r="C2" t="n">
-        <v>-186.0013559319844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574.2078832188538</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1120,12 +1104,6 @@
       <c r="B3" t="n">
         <v>204</v>
       </c>
-      <c r="C3" t="n">
-        <v>-170.4978354967769</v>
-      </c>
-      <c r="D3" t="n">
-        <v>599.9972781404667</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1134,12 +1112,6 @@
       <c r="B4" t="n">
         <v>208</v>
       </c>
-      <c r="C4" t="n">
-        <v>-184.0566157223312</v>
-      </c>
-      <c r="D4" t="n">
-        <v>568.9691952935688</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1148,12 +1120,6 @@
       <c r="B5" t="n">
         <v>212</v>
       </c>
-      <c r="C5" t="n">
-        <v>-164.5409301090037</v>
-      </c>
-      <c r="D5" t="n">
-        <v>583.936454022613</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1162,12 +1128,6 @@
       <c r="B6" t="n">
         <v>216</v>
       </c>
-      <c r="C6" t="n">
-        <v>-153.6355140842168</v>
-      </c>
-      <c r="D6" t="n">
-        <v>615.4590511837638</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1176,12 +1136,6 @@
       <c r="B7" t="n">
         <v>220</v>
       </c>
-      <c r="C7" t="n">
-        <v>-169.7714105906308</v>
-      </c>
-      <c r="D7" t="n">
-        <v>568.6069556569673</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1190,12 +1144,6 @@
       <c r="B8" t="n">
         <v>224</v>
       </c>
-      <c r="C8" t="n">
-        <v>-155.7723663285341</v>
-      </c>
-      <c r="D8" t="n">
-        <v>599.1748808569552</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1204,12 +1152,6 @@
       <c r="B9" t="n">
         <v>228</v>
       </c>
-      <c r="C9" t="n">
-        <v>-172.8912716378057</v>
-      </c>
-      <c r="D9" t="n">
-        <v>593.4649812887144</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1218,12 +1160,6 @@
       <c r="B10" t="n">
         <v>232</v>
       </c>
-      <c r="C10" t="n">
-        <v>-142.5353036368565</v>
-      </c>
-      <c r="D10" t="n">
-        <v>605.1995790434878</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1232,12 +1168,6 @@
       <c r="B11" t="n">
         <v>240</v>
       </c>
-      <c r="C11" t="n">
-        <v>-125.5860119029165</v>
-      </c>
-      <c r="D11" t="n">
-        <v>617.868722916431</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1246,12 +1176,6 @@
       <c r="B12" t="n">
         <v>248</v>
       </c>
-      <c r="C12" t="n">
-        <v>-147.5162881057961</v>
-      </c>
-      <c r="D12" t="n">
-        <v>632.7947061545947</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1260,12 +1184,6 @@
       <c r="B13" t="n">
         <v>252</v>
       </c>
-      <c r="C13" t="n">
-        <v>-94.22249102331139</v>
-      </c>
-      <c r="D13" t="n">
-        <v>621.6032081806718</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1274,12 +1192,6 @@
       <c r="B14" t="n">
         <v>256</v>
       </c>
-      <c r="C14" t="n">
-        <v>-139.4793272351805</v>
-      </c>
-      <c r="D14" t="n">
-        <v>612.4914586471564</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1288,12 +1200,6 @@
       <c r="B15" t="n">
         <v>260</v>
       </c>
-      <c r="C15" t="n">
-        <v>-125.3878366306767</v>
-      </c>
-      <c r="D15" t="n">
-        <v>614.9035230455814</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1302,12 +1208,6 @@
       <c r="B16" t="n">
         <v>264</v>
       </c>
-      <c r="C16" t="n">
-        <v>-105.6018327867915</v>
-      </c>
-      <c r="D16" t="n">
-        <v>652.6907740579907</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1316,12 +1216,6 @@
       <c r="B17" t="n">
         <v>268</v>
       </c>
-      <c r="C17" t="n">
-        <v>-111.176548646644</v>
-      </c>
-      <c r="D17" t="n">
-        <v>649.2083165413499</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1330,12 +1224,6 @@
       <c r="B18" t="n">
         <v>276</v>
       </c>
-      <c r="C18" t="n">
-        <v>-116.3979590440645</v>
-      </c>
-      <c r="D18" t="n">
-        <v>667.320942871357</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1344,12 +1232,6 @@
       <c r="B19" t="n">
         <v>288</v>
       </c>
-      <c r="C19" t="n">
-        <v>-85.28919250001464</v>
-      </c>
-      <c r="D19" t="n">
-        <v>685.7033923633468</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1358,12 +1240,6 @@
       <c r="B20" t="n">
         <v>292</v>
       </c>
-      <c r="C20" t="n">
-        <v>-105.9734245987551</v>
-      </c>
-      <c r="D20" t="n">
-        <v>692.1794370088252</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1372,12 +1248,6 @@
       <c r="B21" t="n">
         <v>304</v>
       </c>
-      <c r="C21" t="n">
-        <v>-116.5186998614502</v>
-      </c>
-      <c r="D21" t="n">
-        <v>683.4316823941841</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1386,12 +1256,6 @@
       <c r="B22" t="n">
         <v>312</v>
       </c>
-      <c r="C22" t="n">
-        <v>-85.35940028126001</v>
-      </c>
-      <c r="D22" t="n">
-        <v>703.9147139028453</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1400,12 +1264,6 @@
       <c r="B23" t="n">
         <v>315</v>
       </c>
-      <c r="C23" t="n">
-        <v>-70.0960227586788</v>
-      </c>
-      <c r="D23" t="n">
-        <v>707.7649864062298</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1414,12 +1272,6 @@
       <c r="B24" t="n">
         <v>319</v>
       </c>
-      <c r="C24" t="n">
-        <v>-78.85545815467613</v>
-      </c>
-      <c r="D24" t="n">
-        <v>713.088223619447</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1428,12 +1280,6 @@
       <c r="B25" t="n">
         <v>323</v>
       </c>
-      <c r="C25" t="n">
-        <v>-36.92891131985129</v>
-      </c>
-      <c r="D25" t="n">
-        <v>714.0525931627247</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1442,12 +1288,6 @@
       <c r="B26" t="n">
         <v>339</v>
       </c>
-      <c r="C26" t="n">
-        <v>-37.9217104923006</v>
-      </c>
-      <c r="D26" t="n">
-        <v>708.6103981176683</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1456,12 +1296,6 @@
       <c r="B27" t="n">
         <v>343</v>
       </c>
-      <c r="C27" t="n">
-        <v>-31.38016033792603</v>
-      </c>
-      <c r="D27" t="n">
-        <v>734.7352686350648</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1470,12 +1304,6 @@
       <c r="B28" t="n">
         <v>347</v>
       </c>
-      <c r="C28" t="n">
-        <v>-40.00576685310224</v>
-      </c>
-      <c r="D28" t="n">
-        <v>740.2404464630118</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1484,12 +1312,6 @@
       <c r="B29" t="n">
         <v>351</v>
       </c>
-      <c r="C29" t="n">
-        <v>-46.71687590961781</v>
-      </c>
-      <c r="D29" t="n">
-        <v>738.8874938435979</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1498,12 +1320,6 @@
       <c r="B30" t="n">
         <v>355</v>
       </c>
-      <c r="C30" t="n">
-        <v>-39.16242351810941</v>
-      </c>
-      <c r="D30" t="n">
-        <v>726.9389538886741</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1512,12 +1328,6 @@
       <c r="B31" t="n">
         <v>359</v>
       </c>
-      <c r="C31" t="n">
-        <v>-18.32564871264739</v>
-      </c>
-      <c r="D31" t="n">
-        <v>724.0184025121316</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1526,12 +1336,6 @@
       <c r="B32" t="n">
         <v>363</v>
       </c>
-      <c r="C32" t="n">
-        <v>-31.86391435806414</v>
-      </c>
-      <c r="D32" t="n">
-        <v>738.6782588909107</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1540,12 +1344,6 @@
       <c r="B33" t="n">
         <v>367</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.09124553795246226</v>
-      </c>
-      <c r="D33" t="n">
-        <v>731.143076922967</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1554,12 +1352,6 @@
       <c r="B34" t="n">
         <v>371</v>
       </c>
-      <c r="C34" t="n">
-        <v>-28.84720782001609</v>
-      </c>
-      <c r="D34" t="n">
-        <v>771.1804445291507</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1568,12 +1360,6 @@
       <c r="B35" t="n">
         <v>375</v>
       </c>
-      <c r="C35" t="n">
-        <v>-5.49403826057214</v>
-      </c>
-      <c r="D35" t="n">
-        <v>754.6112622255147</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1582,12 +1368,6 @@
       <c r="B36" t="n">
         <v>387</v>
       </c>
-      <c r="C36" t="n">
-        <v>32.25107819049487</v>
-      </c>
-      <c r="D36" t="n">
-        <v>768.6221884288755</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1596,12 +1376,6 @@
       <c r="B37" t="n">
         <v>395</v>
       </c>
-      <c r="C37" t="n">
-        <v>48.89611598872257</v>
-      </c>
-      <c r="D37" t="n">
-        <v>801.4677855866761</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1610,12 +1384,6 @@
       <c r="B38" t="n">
         <v>399</v>
       </c>
-      <c r="C38" t="n">
-        <v>2.073037638450382</v>
-      </c>
-      <c r="D38" t="n">
-        <v>790.949317036587</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1624,12 +1392,6 @@
       <c r="B39" t="n">
         <v>407</v>
       </c>
-      <c r="C39" t="n">
-        <v>38.15187404392002</v>
-      </c>
-      <c r="D39" t="n">
-        <v>804.6866679643476</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1638,12 +1400,6 @@
       <c r="B40" t="n">
         <v>411</v>
       </c>
-      <c r="C40" t="n">
-        <v>22.93256258216521</v>
-      </c>
-      <c r="D40" t="n">
-        <v>806.1300567982763</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1652,12 +1408,6 @@
       <c r="B41" t="n">
         <v>415</v>
       </c>
-      <c r="C41" t="n">
-        <v>37.48749649364868</v>
-      </c>
-      <c r="D41" t="n">
-        <v>776.1307228049058</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1666,12 +1416,6 @@
       <c r="B42" t="n">
         <v>427</v>
       </c>
-      <c r="C42" t="n">
-        <v>40.6184373300955</v>
-      </c>
-      <c r="D42" t="n">
-        <v>803.7015422076668</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1680,12 +1424,6 @@
       <c r="B43" t="n">
         <v>431</v>
       </c>
-      <c r="C43" t="n">
-        <v>42.68913449229629</v>
-      </c>
-      <c r="D43" t="n">
-        <v>812.7464829365794</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1694,12 +1432,6 @@
       <c r="B44" t="n">
         <v>435</v>
       </c>
-      <c r="C44" t="n">
-        <v>55.54339804833004</v>
-      </c>
-      <c r="D44" t="n">
-        <v>817.2404529329349</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1708,12 +1440,6 @@
       <c r="B45" t="n">
         <v>439</v>
       </c>
-      <c r="C45" t="n">
-        <v>79.92011105241501</v>
-      </c>
-      <c r="D45" t="n">
-        <v>820.7584587159118</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1722,12 +1448,6 @@
       <c r="B46" t="n">
         <v>443</v>
       </c>
-      <c r="C46" t="n">
-        <v>57.89663022771793</v>
-      </c>
-      <c r="D46" t="n">
-        <v>830.4898912976021</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1736,12 +1456,6 @@
       <c r="B47" t="n">
         <v>447</v>
       </c>
-      <c r="C47" t="n">
-        <v>69.969079159393</v>
-      </c>
-      <c r="D47" t="n">
-        <v>815.4567202826631</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1750,12 +1464,6 @@
       <c r="B48" t="n">
         <v>450</v>
       </c>
-      <c r="C48" t="n">
-        <v>76.66409742293644</v>
-      </c>
-      <c r="D48" t="n">
-        <v>827.0079394645004</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1764,12 +1472,6 @@
       <c r="B49" t="n">
         <v>454</v>
       </c>
-      <c r="C49" t="n">
-        <v>43.29020627542954</v>
-      </c>
-      <c r="D49" t="n">
-        <v>845.8415969052666</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1778,12 +1480,6 @@
       <c r="B50" t="n">
         <v>458</v>
       </c>
-      <c r="C50" t="n">
-        <v>86.92421770703683</v>
-      </c>
-      <c r="D50" t="n">
-        <v>862.9099696888851</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1792,12 +1488,6 @@
       <c r="B51" t="n">
         <v>462</v>
       </c>
-      <c r="C51" t="n">
-        <v>80.14259831502331</v>
-      </c>
-      <c r="D51" t="n">
-        <v>849.4278958426021</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1806,12 +1496,6 @@
       <c r="B52" t="n">
         <v>466</v>
       </c>
-      <c r="C52" t="n">
-        <v>64.75797884522051</v>
-      </c>
-      <c r="D52" t="n">
-        <v>852.7509347447467</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1820,12 +1504,6 @@
       <c r="B53" t="n">
         <v>470</v>
       </c>
-      <c r="C53" t="n">
-        <v>110.9289843412895</v>
-      </c>
-      <c r="D53" t="n">
-        <v>835.3318784331857</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1834,12 +1512,6 @@
       <c r="B54" t="n">
         <v>474</v>
       </c>
-      <c r="C54" t="n">
-        <v>113.7680201583209</v>
-      </c>
-      <c r="D54" t="n">
-        <v>861.3936366155743</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1848,12 +1520,6 @@
       <c r="B55" t="n">
         <v>478</v>
       </c>
-      <c r="C55" t="n">
-        <v>125.4926155878319</v>
-      </c>
-      <c r="D55" t="n">
-        <v>854.1247713658346</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1862,12 +1528,6 @@
       <c r="B56" t="n">
         <v>482</v>
       </c>
-      <c r="C56" t="n">
-        <v>85.45324806563687</v>
-      </c>
-      <c r="D56" t="n">
-        <v>867.3581040153522</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1876,12 +1536,6 @@
       <c r="B57" t="n">
         <v>486</v>
       </c>
-      <c r="C57" t="n">
-        <v>113.3587749202466</v>
-      </c>
-      <c r="D57" t="n">
-        <v>868.4447059647695</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1890,12 +1544,6 @@
       <c r="B58" t="n">
         <v>490</v>
       </c>
-      <c r="C58" t="n">
-        <v>120.9793025970482</v>
-      </c>
-      <c r="D58" t="n">
-        <v>894.8568045413052</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1904,12 +1552,6 @@
       <c r="B59" t="n">
         <v>494</v>
       </c>
-      <c r="C59" t="n">
-        <v>108.8113659797732</v>
-      </c>
-      <c r="D59" t="n">
-        <v>883.1560108028277</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1918,12 +1560,6 @@
       <c r="B60" t="n">
         <v>498</v>
       </c>
-      <c r="C60" t="n">
-        <v>94.59185193225686</v>
-      </c>
-      <c r="D60" t="n">
-        <v>873.1815338772627</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1932,12 +1568,6 @@
       <c r="B61" t="n">
         <v>502</v>
       </c>
-      <c r="C61" t="n">
-        <v>97.05347944722989</v>
-      </c>
-      <c r="D61" t="n">
-        <v>893.9818732003471</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1946,12 +1576,6 @@
       <c r="B62" t="n">
         <v>506</v>
       </c>
-      <c r="C62" t="n">
-        <v>141.5919290226283</v>
-      </c>
-      <c r="D62" t="n">
-        <v>884.5768859147379</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1959,12 +1583,6 @@
       </c>
       <c r="B63" t="n">
         <v>510</v>
-      </c>
-      <c r="C63" t="n">
-        <v>126.9548611688752</v>
-      </c>
-      <c r="D63" t="n">
-        <v>873.3135734306376</v>
       </c>
     </row>
   </sheetData>
